--- a/booklets/requirements/user_stories.xlsx
+++ b/booklets/requirements/user_stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matti\OneDrive\Desktop\BookLine\booklets\requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattia/Desktop/BookLine/booklets/requirements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02702715-D96D-41D4-BEEC-A19BA5DF32D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EFF690-E24F-5D45-A914-1432BEDA6084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{3C0AB6FB-B9C5-429B-B6CD-2E083ED56C30}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19320" xr2:uid="{3C0AB6FB-B9C5-429B-B6CD-2E083ED56C30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,15 +35,86 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>1. As a Guest, I want to browse all available books so that I can explore the entire catalog.</t>
+  </si>
+  <si>
+    <t>2. As a Guest, I want to search for books by author, genre, title, or publication date so that I can easily find specific books of interest.</t>
+  </si>
+  <si>
+    <t>3. As a Guest, I want to filter and sort books in the catalog so that I can quickly find the books I’m looking for.</t>
+  </si>
+  <si>
+    <t>4. As a Guest, I want to create a personal account so that I can register and access additional services.</t>
+  </si>
+  <si>
+    <t>5. As a Registered User, I want to log in using my email and password so that I can access my profile and personalized services.</t>
+  </si>
+  <si>
+    <t>6. As a Registered User, I want to log out from my account so that I can end my session.</t>
+  </si>
+  <si>
+    <t>7. As a Registered User, I want to view detailed information about a book so that I can evaluate it before deciding to borrow or reserve it.</t>
+  </si>
+  <si>
+    <t>8. As a Registered User, I want to reserve available books so that I can visit the library and collect them later.</t>
+  </si>
+  <si>
+    <t>9. As a Registered User, I want to receive a confirmation when I successfully reserve a book so that I can confirm my reservation with the library staff.</t>
+  </si>
+  <si>
+    <t>10. As a Registered User, I want to join a waitlist when a book is unavailable so that I can be notified when it becomes available.</t>
+  </si>
+  <si>
+    <t>11. As a Registered User, I want to know when it’s my turn to collect a reserved book so that I can promptly visit the library.</t>
+  </si>
+  <si>
+    <t>12. As a Registered User, I want to view my personal area so that I can track my reservations, favorite books, and reading statistics.</t>
+  </si>
+  <si>
+    <t>13. As a Registered User, I want to edit my profile information so that I can keep my preferences and interests up to date.</t>
+  </si>
+  <si>
+    <t>14. As a Registered User, I want to receive personalized book recommendations so that I can find books based on my interests and reading habits.</t>
+  </si>
+  <si>
+    <t>15. As a Registered User, I want to delete my account from a settings page so that I can permanently remove my data from the system.</t>
+  </si>
+  <si>
+    <t>16. As a Librarian, I want to add or delete books from the catalog so that users always have access to the most current collection.</t>
+  </si>
+  <si>
+    <t>17. As a Librarian, I want to process and edit book information so that I can ensure the catalog is always accurate and up to date.</t>
+  </si>
+  <si>
+    <t>18. As a Librarian, I want to access a reservation management page so that I can track borrowed and returned books.</t>
+  </si>
+  <si>
+    <t>19. As a Librarian, I want to scan QR codes to verify book reservations so that I can manage the borrowing process efficiently.</t>
+  </si>
+  <si>
+    <t>20. As a Librarian, I want to access the library dashboard so that I can review user trends and improve library services accordingly.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,11 +137,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -86,7 +158,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -402,12 +474,118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD05F85E-4BD4-45D8-B3F6-A3B98404B1DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="120.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>